--- a/3.요구사항 정의서.xlsx
+++ b/3.요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="6" rupBuild="9.104.180.50664"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="history" state="hidden" sheetId="6" r:id="rId1"/>
@@ -2115,7 +2115,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2421,24 +2421,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -3425,20 +3413,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
     </border>
     <border>
@@ -12223,7 +12197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13211,148 +13185,118 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="81" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17497,22 +17441,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" style="353" width="4.43357144" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="347" width="4.43357144" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="316" width="15.14785753" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="353" width="24.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="347" width="24.14785658" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="316" width="71.71928297" customWidth="1" outlineLevel="0"/>
     <col min="5" max="16384" style="316" width="9.14785753" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.750000">
+    <row r="1" spans="1:4" ht="33.750000">
       <c r="A1" s="325" t="s">
         <v>156</v>
       </c>
@@ -17520,1127 +17464,1046 @@
       <c r="C1" s="325"/>
       <c r="D1" s="325"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="351" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="351" t="s">
+      <c r="B2" s="345" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="351" t="s">
+      <c r="C2" s="345" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="351" t="s">
+      <c r="D2" s="345" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="316"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="352">
+    <row r="3" spans="1:4">
+      <c r="A3" s="346">
         <v>1</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="360" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="358" t="s">
+      <c r="C3" s="351" t="s">
         <v>194</v>
       </c>
       <c r="D3" s="332" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="316"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="352">
+    <row r="4" spans="1:4">
+      <c r="A4" s="346">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="358" t="s">
+      <c r="B4" s="360"/>
+      <c r="C4" s="351" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="332" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="316"/>
     </row>
-    <row r="5" spans="1:9" ht="40.500000" customHeight="1">
-      <c r="A5" s="352">
+    <row r="5" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A5" s="346">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="369"/>
-      <c r="C5" s="358" t="s">
+      <c r="B5" s="360"/>
+      <c r="C5" s="351" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="332" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="316"/>
     </row>
-    <row r="6" spans="1:9" ht="40.500000" customHeight="1">
-      <c r="A6" s="352">
+    <row r="6" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A6" s="346">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="369"/>
-      <c r="C6" s="358" t="s">
+      <c r="B6" s="360"/>
+      <c r="C6" s="351" t="s">
         <v>211</v>
       </c>
       <c r="D6" s="332" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="316"/>
     </row>
-    <row r="7" spans="1:9" ht="40.500000" customHeight="1">
-      <c r="A7" s="352">
+    <row r="7" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A7" s="346">
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="369"/>
-      <c r="C7" s="358" t="s">
+      <c r="B7" s="360"/>
+      <c r="C7" s="351" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="332" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="316"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="352">
+    <row r="8" spans="1:4">
+      <c r="A8" s="346">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="369" t="s">
+      <c r="B8" s="360" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="358" t="s">
+      <c r="C8" s="351" t="s">
         <v>224</v>
       </c>
       <c r="D8" s="327" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="316"/>
     </row>
-    <row r="9" spans="1:9" ht="54.000000" customHeight="1">
-      <c r="A9" s="352">
+    <row r="9" spans="1:4" ht="54.000000" customHeight="1">
+      <c r="A9" s="346">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="369"/>
-      <c r="C9" s="358" t="s">
+      <c r="B9" s="360"/>
+      <c r="C9" s="351" t="s">
         <v>229</v>
       </c>
       <c r="D9" s="332" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="316"/>
     </row>
-    <row r="10" spans="1:9" ht="54.000000" customHeight="1">
-      <c r="A10" s="352">
+    <row r="10" spans="1:4" ht="54.000000" customHeight="1">
+      <c r="A10" s="346">
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="369"/>
-      <c r="C10" s="358" t="s">
+      <c r="B10" s="360"/>
+      <c r="C10" s="351" t="s">
         <v>228</v>
       </c>
       <c r="D10" s="332" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="316"/>
-      <c r="I10" s="316"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="352">
+    <row r="11" spans="1:4">
+      <c r="A11" s="346">
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="369"/>
-      <c r="C11" s="358" t="s">
+      <c r="B11" s="360"/>
+      <c r="C11" s="351" t="s">
         <v>250</v>
       </c>
       <c r="D11" s="332" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="316"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="352">
+    <row r="12" spans="1:4">
+      <c r="A12" s="346">
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="369"/>
-      <c r="C12" s="358" t="s">
+      <c r="B12" s="360"/>
+      <c r="C12" s="351" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="327" t="s">
         <v>253</v>
       </c>
-      <c r="E12" s="316"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="352">
+    <row r="13" spans="1:4">
+      <c r="A13" s="346">
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="369"/>
-      <c r="C13" s="358" t="s">
+      <c r="B13" s="360"/>
+      <c r="C13" s="351" t="s">
         <v>254</v>
       </c>
       <c r="D13" s="327" t="s">
         <v>255</v>
       </c>
-      <c r="E13" s="316"/>
     </row>
-    <row r="14" spans="1:9" ht="27.000000" customHeight="1">
-      <c r="A14" s="352">
+    <row r="14" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A14" s="346">
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="369" t="s">
+      <c r="B14" s="360" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="358" t="s">
+      <c r="C14" s="351" t="s">
         <v>248</v>
       </c>
       <c r="D14" s="332" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="316"/>
     </row>
-    <row r="15" spans="1:9" ht="27.000000" customHeight="1">
-      <c r="A15" s="352">
+    <row r="15" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A15" s="346">
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="369"/>
-      <c r="C15" s="358" t="s">
+      <c r="B15" s="360"/>
+      <c r="C15" s="351" t="s">
         <v>256</v>
       </c>
       <c r="D15" s="332" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="316"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="352">
+    <row r="16" spans="1:4">
+      <c r="A16" s="346">
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="369" t="s">
+      <c r="B16" s="360" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="358" t="s">
+      <c r="C16" s="351" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="327" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="316"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="352">
+    <row r="17" spans="1:4">
+      <c r="A17" s="346">
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="369"/>
-      <c r="C17" s="358" t="s">
+      <c r="B17" s="360"/>
+      <c r="C17" s="351" t="s">
         <v>262</v>
       </c>
       <c r="D17" s="327" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="316"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="352">
+    <row r="18" spans="1:4">
+      <c r="A18" s="346">
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="369"/>
-      <c r="C18" s="358" t="s">
+      <c r="B18" s="360"/>
+      <c r="C18" s="351" t="s">
         <v>263</v>
       </c>
       <c r="D18" s="327" t="s">
         <v>335</v>
       </c>
-      <c r="E18" s="316"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="352">
+    <row r="19" spans="1:4">
+      <c r="A19" s="346">
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="369"/>
-      <c r="C19" s="358" t="s">
+      <c r="B19" s="360"/>
+      <c r="C19" s="351" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="327" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="316"/>
     </row>
-    <row r="20" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A20" s="352">
+    <row r="20" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A20" s="346">
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="369"/>
-      <c r="C20" s="358" t="s">
+      <c r="B20" s="360"/>
+      <c r="C20" s="351" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="332" t="s">
         <v>337</v>
       </c>
-      <c r="E20" s="316"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="352">
+    <row r="21" spans="1:4">
+      <c r="A21" s="346">
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="369"/>
-      <c r="C21" s="358" t="s">
+      <c r="B21" s="360"/>
+      <c r="C21" s="351" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="327" t="s">
         <v>284</v>
       </c>
-      <c r="E21" s="316"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="352">
+    <row r="22" spans="1:4">
+      <c r="A22" s="346">
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="369"/>
-      <c r="C22" s="358" t="s">
+      <c r="B22" s="360"/>
+      <c r="C22" s="351" t="s">
         <v>293</v>
       </c>
       <c r="D22" s="327" t="s">
         <v>338</v>
       </c>
-      <c r="E22" s="316"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="352">
+    <row r="23" spans="1:4">
+      <c r="A23" s="346">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="369"/>
-      <c r="C23" s="358" t="s">
+      <c r="B23" s="360"/>
+      <c r="C23" s="351" t="s">
         <v>292</v>
       </c>
       <c r="D23" s="327" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="316"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="352">
+    <row r="24" spans="1:4">
+      <c r="A24" s="346">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="369"/>
-      <c r="C24" s="358" t="s">
+      <c r="B24" s="360"/>
+      <c r="C24" s="351" t="s">
         <v>291</v>
       </c>
       <c r="D24" s="327" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="316"/>
     </row>
-    <row r="25" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A25" s="352">
+    <row r="25" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A25" s="346">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="369"/>
-      <c r="C25" s="358" t="s">
+      <c r="B25" s="360"/>
+      <c r="C25" s="351" t="s">
         <v>302</v>
       </c>
       <c r="D25" s="332" t="s">
         <v>304</v>
       </c>
-      <c r="E25" s="316"/>
     </row>
-    <row r="26" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A26" s="352">
+    <row r="26" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A26" s="346">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="369"/>
-      <c r="C26" s="358" t="s">
+      <c r="B26" s="360"/>
+      <c r="C26" s="351" t="s">
         <v>297</v>
       </c>
       <c r="D26" s="332" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="316"/>
     </row>
-    <row r="27" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A27" s="352">
+    <row r="27" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A27" s="346">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="369"/>
-      <c r="C27" s="358" t="s">
+      <c r="B27" s="360"/>
+      <c r="C27" s="351" t="s">
         <v>299</v>
       </c>
       <c r="D27" s="332" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="316"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="352">
+    <row r="28" spans="1:4">
+      <c r="A28" s="346">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="370"/>
-      <c r="C28" s="358" t="s">
+      <c r="B28" s="361"/>
+      <c r="C28" s="351" t="s">
         <v>305</v>
       </c>
       <c r="D28" s="327" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="352">
+    <row r="29" spans="1:4">
+      <c r="A29" s="346">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="369"/>
-      <c r="C29" s="358" t="s">
+      <c r="B29" s="360"/>
+      <c r="C29" s="351" t="s">
         <v>351</v>
       </c>
       <c r="D29" s="327" t="s">
         <v>352</v>
       </c>
-      <c r="E29" s="316"/>
     </row>
-    <row r="30" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A30" s="352">
+    <row r="30" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A30" s="346">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="369"/>
-      <c r="C30" s="358" t="s">
+      <c r="B30" s="360"/>
+      <c r="C30" s="351" t="s">
         <v>316</v>
       </c>
       <c r="D30" s="332" t="s">
         <v>318</v>
       </c>
-      <c r="E30" s="316"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="352">
+    <row r="31" spans="1:4">
+      <c r="A31" s="346">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="369"/>
-      <c r="C31" s="358" t="s">
+      <c r="B31" s="360"/>
+      <c r="C31" s="351" t="s">
         <v>320</v>
       </c>
       <c r="D31" s="327" t="s">
         <v>321</v>
       </c>
-      <c r="E31" s="316"/>
     </row>
-    <row r="32" spans="1:5" ht="54.000000">
-      <c r="A32" s="352">
+    <row r="32" spans="1:4" ht="54.000000">
+      <c r="A32" s="346">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="369"/>
-      <c r="C32" s="358" t="s">
+      <c r="B32" s="360"/>
+      <c r="C32" s="351" t="s">
         <v>322</v>
       </c>
       <c r="D32" s="332" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="316"/>
     </row>
-    <row r="33" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A33" s="352">
+    <row r="33" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A33" s="346">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="371"/>
-      <c r="C33" s="359" t="s">
+      <c r="B33" s="360"/>
+      <c r="C33" s="351" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="334" t="s">
+      <c r="D33" s="332" t="s">
         <v>389</v>
       </c>
-      <c r="E33" s="316"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="354">
+    <row r="34" spans="1:4">
+      <c r="A34" s="346">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="372" t="s">
+      <c r="B34" s="362" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="359" t="s">
+      <c r="C34" s="351" t="s">
         <v>341</v>
       </c>
-      <c r="D34" s="336" t="s">
+      <c r="D34" s="327" t="s">
         <v>353</v>
       </c>
-      <c r="E34" s="316"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="354">
+    <row r="35" spans="1:4">
+      <c r="A35" s="346">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="373"/>
-      <c r="C35" s="359" t="s">
+      <c r="B35" s="363"/>
+      <c r="C35" s="351" t="s">
         <v>342</v>
       </c>
-      <c r="D35" s="336" t="s">
+      <c r="D35" s="327" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="316"/>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="354">
+    <row r="36" spans="1:4">
+      <c r="A36" s="346">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="373"/>
-      <c r="C36" s="359" t="s">
+      <c r="B36" s="363"/>
+      <c r="C36" s="351" t="s">
         <v>343</v>
       </c>
-      <c r="D36" s="336" t="s">
+      <c r="D36" s="327" t="s">
         <v>442</v>
       </c>
-      <c r="E36" s="316"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="354">
+    <row r="37" spans="1:4">
+      <c r="A37" s="346">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="373"/>
-      <c r="C37" s="359" t="s">
+      <c r="B37" s="363"/>
+      <c r="C37" s="351" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="336" t="s">
+      <c r="D37" s="327" t="s">
         <v>360</v>
       </c>
-      <c r="E37" s="316"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="354">
+    <row r="38" spans="1:4">
+      <c r="A38" s="346">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="373"/>
-      <c r="C38" s="359" t="s">
+      <c r="B38" s="363"/>
+      <c r="C38" s="351" t="s">
         <v>345</v>
       </c>
-      <c r="D38" s="334" t="s">
+      <c r="D38" s="332" t="s">
         <v>362</v>
       </c>
-      <c r="E38" s="316"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="354">
+    <row r="39" spans="1:4">
+      <c r="A39" s="346">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="373"/>
-      <c r="C39" s="359" t="s">
+      <c r="B39" s="363"/>
+      <c r="C39" s="351" t="s">
         <v>346</v>
       </c>
-      <c r="D39" s="336" t="s">
+      <c r="D39" s="327" t="s">
         <v>363</v>
       </c>
-      <c r="E39" s="316"/>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="354">
+    <row r="40" spans="1:4">
+      <c r="A40" s="346">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="373"/>
-      <c r="C40" s="359" t="s">
+      <c r="B40" s="363"/>
+      <c r="C40" s="351" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="336" t="s">
+      <c r="D40" s="327" t="s">
         <v>364</v>
       </c>
-      <c r="E40" s="316"/>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="354">
+    <row r="41" spans="1:4">
+      <c r="A41" s="346">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="373"/>
-      <c r="C41" s="359" t="s">
+      <c r="B41" s="363"/>
+      <c r="C41" s="351" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="336" t="s">
+      <c r="D41" s="327" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="316"/>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="354">
+    <row r="42" spans="1:4">
+      <c r="A42" s="346">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="373"/>
-      <c r="C42" s="359" t="s">
+      <c r="B42" s="363"/>
+      <c r="C42" s="351" t="s">
         <v>347</v>
       </c>
-      <c r="D42" s="336" t="s">
+      <c r="D42" s="327" t="s">
         <v>366</v>
       </c>
-      <c r="E42" s="316"/>
     </row>
-    <row r="43" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A43" s="354">
+    <row r="43" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A43" s="346">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="373"/>
-      <c r="C43" s="359" t="s">
+      <c r="B43" s="363"/>
+      <c r="C43" s="351" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="334" t="s">
+      <c r="D43" s="332" t="s">
         <v>368</v>
       </c>
-      <c r="E43" s="316"/>
     </row>
-    <row r="44" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A44" s="354">
+    <row r="44" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A44" s="346">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="373"/>
-      <c r="C44" s="359" t="s">
+      <c r="B44" s="363"/>
+      <c r="C44" s="351" t="s">
         <v>297</v>
       </c>
-      <c r="D44" s="334" t="s">
+      <c r="D44" s="332" t="s">
         <v>370</v>
       </c>
-      <c r="E44" s="316"/>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="354">
+    <row r="45" spans="1:4">
+      <c r="A45" s="346">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="373"/>
-      <c r="C45" s="359" t="s">
+      <c r="B45" s="363"/>
+      <c r="C45" s="351" t="s">
         <v>348</v>
       </c>
-      <c r="D45" s="336" t="s">
+      <c r="D45" s="327" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="316"/>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="354">
+    <row r="46" spans="1:4">
+      <c r="A46" s="346">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="373"/>
-      <c r="C46" s="359" t="s">
+      <c r="B46" s="363"/>
+      <c r="C46" s="351" t="s">
         <v>372</v>
       </c>
-      <c r="D46" s="336" t="s">
+      <c r="D46" s="327" t="s">
         <v>373</v>
       </c>
-      <c r="E46" s="316"/>
     </row>
-    <row r="47" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A47" s="354">
+    <row r="47" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A47" s="346">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="373"/>
-      <c r="C47" s="359" t="s">
+      <c r="B47" s="363"/>
+      <c r="C47" s="351" t="s">
         <v>349</v>
       </c>
-      <c r="D47" s="334" t="s">
+      <c r="D47" s="332" t="s">
         <v>376</v>
       </c>
-      <c r="E47" s="316"/>
     </row>
-    <row r="48" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A48" s="354">
+    <row r="48" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A48" s="346">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="373"/>
-      <c r="C48" s="359" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="351" t="s">
         <v>350</v>
       </c>
-      <c r="D48" s="334" t="s">
+      <c r="D48" s="332" t="s">
         <v>378</v>
       </c>
-      <c r="E48" s="316"/>
     </row>
-    <row r="49" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A49" s="354">
+    <row r="49" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A49" s="346">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="373"/>
-      <c r="C49" s="359" t="s">
+      <c r="B49" s="363"/>
+      <c r="C49" s="351" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="334" t="s">
+      <c r="D49" s="332" t="s">
         <v>383</v>
       </c>
-      <c r="E49" s="316"/>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="354">
+    <row r="50" spans="1:4">
+      <c r="A50" s="346">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="373"/>
-      <c r="C50" s="359" t="s">
+      <c r="B50" s="363"/>
+      <c r="C50" s="351" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="336" t="s">
+      <c r="D50" s="327" t="s">
         <v>435</v>
       </c>
-      <c r="E50" s="316"/>
     </row>
-    <row r="51" spans="1:5" ht="54.000000" customHeight="1">
-      <c r="A51" s="354">
+    <row r="51" spans="1:4" ht="54.000000" customHeight="1">
+      <c r="A51" s="346">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="373"/>
-      <c r="C51" s="359" t="s">
+      <c r="B51" s="363"/>
+      <c r="C51" s="351" t="s">
         <v>437</v>
       </c>
-      <c r="D51" s="334" t="s">
+      <c r="D51" s="332" t="s">
         <v>387</v>
       </c>
-      <c r="E51" s="316"/>
     </row>
-    <row r="52" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A52" s="354">
+    <row r="52" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A52" s="346">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="374"/>
-      <c r="C52" s="359" t="s">
+      <c r="B52" s="364"/>
+      <c r="C52" s="351" t="s">
         <v>438</v>
       </c>
-      <c r="D52" s="334" t="s">
+      <c r="D52" s="332" t="s">
         <v>388</v>
       </c>
-      <c r="E52" s="316"/>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="354">
+    <row r="53" spans="1:4">
+      <c r="A53" s="346">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="372" t="s">
+      <c r="B53" s="362" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="359" t="s">
+      <c r="C53" s="351" t="s">
         <v>399</v>
       </c>
-      <c r="D53" s="336" t="s">
+      <c r="D53" s="327" t="s">
         <v>422</v>
       </c>
-      <c r="E53" s="316"/>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="354">
+    <row r="54" spans="1:4">
+      <c r="A54" s="346">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="373"/>
-      <c r="C54" s="359" t="s">
+      <c r="B54" s="363"/>
+      <c r="C54" s="351" t="s">
         <v>400</v>
       </c>
-      <c r="D54" s="336" t="s">
+      <c r="D54" s="327" t="s">
         <v>408</v>
       </c>
-      <c r="E54" s="316"/>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="354">
+    <row r="55" spans="1:4">
+      <c r="A55" s="346">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="373"/>
-      <c r="C55" s="359" t="s">
+      <c r="B55" s="363"/>
+      <c r="C55" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="336" t="s">
+      <c r="D55" s="327" t="s">
         <v>409</v>
       </c>
-      <c r="E55" s="316"/>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="354">
+    <row r="56" spans="1:4">
+      <c r="A56" s="346">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="373"/>
-      <c r="C56" s="359" t="s">
+      <c r="B56" s="363"/>
+      <c r="C56" s="351" t="s">
         <v>402</v>
       </c>
-      <c r="D56" s="336" t="s">
+      <c r="D56" s="327" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="354">
+    <row r="57" spans="1:4">
+      <c r="A57" s="346">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="373"/>
-      <c r="C57" s="359" t="s">
+      <c r="B57" s="363"/>
+      <c r="C57" s="351" t="s">
         <v>451</v>
       </c>
-      <c r="D57" s="336" t="s">
+      <c r="D57" s="327" t="s">
         <v>452</v>
       </c>
-      <c r="E57" s="316"/>
     </row>
-    <row r="58" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A58" s="354">
+    <row r="58" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A58" s="346">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="373"/>
-      <c r="C58" s="359" t="s">
+      <c r="B58" s="363"/>
+      <c r="C58" s="351" t="s">
         <v>404</v>
       </c>
-      <c r="D58" s="334" t="s">
+      <c r="D58" s="332" t="s">
         <v>411</v>
       </c>
-      <c r="E58" s="316"/>
     </row>
-    <row r="59" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A59" s="354">
+    <row r="59" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A59" s="346">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="373"/>
-      <c r="C59" s="359" t="s">
+      <c r="B59" s="363"/>
+      <c r="C59" s="351" t="s">
         <v>302</v>
       </c>
-      <c r="D59" s="334" t="s">
+      <c r="D59" s="332" t="s">
         <v>413</v>
       </c>
-      <c r="E59" s="316"/>
     </row>
-    <row r="60" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A60" s="354">
+    <row r="60" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A60" s="346">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="373"/>
-      <c r="C60" s="359" t="s">
+      <c r="B60" s="363"/>
+      <c r="C60" s="351" t="s">
         <v>414</v>
       </c>
-      <c r="D60" s="334" t="s">
+      <c r="D60" s="332" t="s">
         <v>415</v>
       </c>
-      <c r="E60" s="316"/>
     </row>
-    <row r="61" spans="1:5" ht="40.500000" customHeight="1">
-      <c r="A61" s="354">
+    <row r="61" spans="1:4" ht="40.500000" customHeight="1">
+      <c r="A61" s="346">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="373"/>
-      <c r="C61" s="359" t="s">
+      <c r="B61" s="363"/>
+      <c r="C61" s="351" t="s">
         <v>416</v>
       </c>
-      <c r="D61" s="334" t="s">
+      <c r="D61" s="332" t="s">
         <v>424</v>
       </c>
-      <c r="E61" s="316"/>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="354">
+    <row r="62" spans="1:4">
+      <c r="A62" s="346">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="373"/>
-      <c r="C62" s="359" t="s">
+      <c r="B62" s="363"/>
+      <c r="C62" s="351" t="s">
         <v>425</v>
       </c>
-      <c r="D62" s="336" t="s">
+      <c r="D62" s="327" t="s">
         <v>426</v>
       </c>
-      <c r="E62" s="316"/>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="354">
+    <row r="63" spans="1:4">
+      <c r="A63" s="346">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="373"/>
-      <c r="C63" s="359" t="s">
+      <c r="B63" s="363"/>
+      <c r="C63" s="351" t="s">
         <v>427</v>
       </c>
-      <c r="D63" s="336" t="s">
+      <c r="D63" s="327" t="s">
         <v>428</v>
       </c>
-      <c r="E63" s="316"/>
     </row>
-    <row r="64" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A64" s="354">
+    <row r="64" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A64" s="346">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="373"/>
-      <c r="C64" s="359" t="s">
+      <c r="B64" s="363"/>
+      <c r="C64" s="351" t="s">
         <v>429</v>
       </c>
-      <c r="D64" s="334" t="s">
+      <c r="D64" s="332" t="s">
         <v>433</v>
       </c>
-      <c r="E64" s="316"/>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="354">
+    <row r="65" spans="1:4">
+      <c r="A65" s="346">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="373"/>
-      <c r="C65" s="359" t="s">
+      <c r="B65" s="363"/>
+      <c r="C65" s="351" t="s">
         <v>430</v>
       </c>
-      <c r="D65" s="336" t="s">
+      <c r="D65" s="327" t="s">
         <v>440</v>
       </c>
-      <c r="E65" s="316"/>
     </row>
-    <row r="66" spans="1:5" ht="54.000000" customHeight="1">
-      <c r="A66" s="354">
+    <row r="66" spans="1:4" ht="54.000000" customHeight="1">
+      <c r="A66" s="346">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="373"/>
-      <c r="C66" s="359" t="s">
+      <c r="B66" s="363"/>
+      <c r="C66" s="351" t="s">
         <v>457</v>
       </c>
-      <c r="D66" s="334" t="s">
+      <c r="D66" s="332" t="s">
         <v>444</v>
       </c>
-      <c r="E66" s="316"/>
     </row>
-    <row r="67" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A67" s="354">
+    <row r="67" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A67" s="346">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="374"/>
-      <c r="C67" s="359" t="s">
+      <c r="B67" s="364"/>
+      <c r="C67" s="351" t="s">
         <v>458</v>
       </c>
-      <c r="D67" s="334" t="s">
+      <c r="D67" s="332" t="s">
         <v>445</v>
       </c>
-      <c r="E67" s="316"/>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="354">
+    <row r="68" spans="1:4">
+      <c r="A68" s="346">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="372" t="s">
+      <c r="B68" s="362" t="s">
         <v>397</v>
       </c>
-      <c r="C68" s="359" t="s">
+      <c r="C68" s="351" t="s">
         <v>446</v>
       </c>
-      <c r="D68" s="336" t="s">
+      <c r="D68" s="327" t="s">
         <v>465</v>
       </c>
-      <c r="E68" s="316"/>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="354">
+    <row r="69" spans="1:4">
+      <c r="A69" s="346">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="373"/>
-      <c r="C69" s="359" t="s">
+      <c r="B69" s="363"/>
+      <c r="C69" s="351" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="336" t="s">
+      <c r="D69" s="327" t="s">
         <v>466</v>
       </c>
-      <c r="E69" s="316"/>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="354">
+    <row r="70" spans="1:4">
+      <c r="A70" s="346">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="373"/>
-      <c r="C70" s="359" t="s">
+      <c r="B70" s="363"/>
+      <c r="C70" s="351" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="336" t="s">
+      <c r="D70" s="327" t="s">
         <v>467</v>
       </c>
-      <c r="E70" s="316"/>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="354">
+    <row r="71" spans="1:4">
+      <c r="A71" s="346">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="373"/>
-      <c r="C71" s="359" t="s">
+      <c r="B71" s="363"/>
+      <c r="C71" s="351" t="s">
         <v>449</v>
       </c>
-      <c r="D71" s="336" t="s">
+      <c r="D71" s="327" t="s">
         <v>468</v>
       </c>
-      <c r="E71" s="316"/>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="354">
+    <row r="72" spans="1:4">
+      <c r="A72" s="346">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="340"/>
-      <c r="C72" s="359" t="s">
+      <c r="B72" s="336"/>
+      <c r="C72" s="351" t="s">
         <v>450</v>
       </c>
-      <c r="D72" s="336" t="s">
+      <c r="D72" s="327" t="s">
         <v>470</v>
       </c>
-      <c r="E72" s="316"/>
     </row>
-    <row r="73" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A73" s="354">
+    <row r="73" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A73" s="346">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="373"/>
-      <c r="C73" s="359" t="s">
+      <c r="B73" s="363"/>
+      <c r="C73" s="351" t="s">
         <v>453</v>
       </c>
-      <c r="D73" s="334" t="s">
+      <c r="D73" s="332" t="s">
         <v>471</v>
       </c>
-      <c r="E73" s="316"/>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="354">
+    <row r="74" spans="1:4">
+      <c r="A74" s="346">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="373"/>
-      <c r="C74" s="359" t="s">
+      <c r="B74" s="363"/>
+      <c r="C74" s="351" t="s">
         <v>456</v>
       </c>
-      <c r="D74" s="336" t="s">
+      <c r="D74" s="327" t="s">
         <v>472</v>
       </c>
-      <c r="E74" s="316"/>
     </row>
-    <row r="75" spans="1:5" ht="54.000000" customHeight="1">
-      <c r="A75" s="354">
+    <row r="75" spans="1:4" ht="54.000000" customHeight="1">
+      <c r="A75" s="346">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="373"/>
-      <c r="C75" s="359" t="s">
+      <c r="B75" s="363"/>
+      <c r="C75" s="351" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="334" t="s">
+      <c r="D75" s="332" t="s">
         <v>473</v>
       </c>
-      <c r="E75" s="316"/>
     </row>
-    <row r="76" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A76" s="354">
+    <row r="76" spans="1:4" ht="27.000000" customHeight="1">
+      <c r="A76" s="346">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="373"/>
-      <c r="C76" s="359" t="s">
+      <c r="B76" s="363"/>
+      <c r="C76" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="D76" s="334" t="s">
+      <c r="D76" s="332" t="s">
         <v>474</v>
       </c>
-      <c r="E76" s="316"/>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="354">
+    <row r="77" spans="1:4">
+      <c r="A77" s="346">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="373"/>
-      <c r="C77" s="359" t="s">
+      <c r="B77" s="363"/>
+      <c r="C77" s="351" t="s">
         <v>476</v>
       </c>
-      <c r="D77" s="336" t="s">
+      <c r="D77" s="327" t="s">
         <v>477</v>
       </c>
-      <c r="E77" s="316"/>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="354">
+    <row r="78" spans="1:4">
+      <c r="A78" s="346">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="373"/>
-      <c r="C78" s="359" t="s">
+      <c r="B78" s="363"/>
+      <c r="C78" s="351" t="s">
         <v>462</v>
       </c>
-      <c r="D78" s="336" t="s">
+      <c r="D78" s="327" t="s">
         <v>478</v>
       </c>
-      <c r="E78" s="316"/>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="354">
+    <row r="79" spans="1:4">
+      <c r="A79" s="346">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="373"/>
-      <c r="C79" s="359" t="s">
+      <c r="B79" s="363"/>
+      <c r="C79" s="351" t="s">
         <v>463</v>
       </c>
-      <c r="D79" s="336" t="s">
+      <c r="D79" s="327" t="s">
         <v>479</v>
       </c>
-      <c r="E79" s="316"/>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="354">
+    <row r="80" spans="1:4">
+      <c r="A80" s="346">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="374"/>
-      <c r="C80" s="359" t="s">
+      <c r="B80" s="364"/>
+      <c r="C80" s="351" t="s">
         <v>464</v>
       </c>
-      <c r="D80" s="336" t="s">
+      <c r="D80" s="327" t="s">
         <v>480</v>
       </c>
-      <c r="E80" s="316"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="8">
